--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B3977-3AD8-4A38-95FE-6299A4A65F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1BA955-FE12-40DE-938E-D2ECF7A12C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="107">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -155,43 +155,12 @@
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
   </si>
   <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
-  </si>
-  <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
   </si>
   <si>
@@ -199,95 +168,6 @@
   </si>
   <si>
     <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exemplu: Parametrii </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> şi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; Condiţii pentru aceşti parametri de intrare: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este un string cu lungimea validă de la 1 la 255 caractere; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este valid dacă ia valori între 1899 şi 2025.</t>
-    </r>
   </si>
   <si>
     <t>EC Identification</t>
@@ -672,12 +552,49 @@
   <si>
     <t>"IKEA"</t>
   </si>
+  <si>
+    <t>1. Inventroy</t>
+  </si>
+  <si>
+    <t>Aplicatia gestioneaza piesele componente si produsele finite ale unei companii de productie. Informatiile sunt preluate dintr-un fisier text</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F01.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Adaugarea unei piese cu detaliile: denumire, numar de bucati existente in stoc, pret unitar, numarul minim si maxim de bucati acceptat pentru depozitare. Daca o piesa este fabricata de catre companie, atunci se retine identificatorul masinii care a produs-o. Daca este o componenta achizitionata de companie, atunci se va retine numele companiei.</t>
+    </r>
+  </si>
+  <si>
+    <t>addOutsourcePart(name, price, stock, min, max, dynamicValue): void</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,21 +633,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color indexed="30"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1343,7 +1245,7 @@
   </cellStyleXfs>
   <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,53 +1253,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1405,59 +1307,59 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,106 +1371,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1583,107 +1490,102 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1994,7 +1896,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,12 +1909,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
       <c r="H1" s="35" t="s">
         <v>1</v>
       </c>
@@ -2020,11 +1922,11 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2040,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J4" s="2">
         <v>237</v>
@@ -2051,7 +1953,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J5" s="2">
         <v>237</v>
@@ -2100,7 +2002,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2108,7 +2010,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2116,7 +2018,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2129,27 +2031,30 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="31" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2157,8 +2062,12 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2166,7 +2075,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2183,21 +2092,19 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
-      <c r="B24" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="34"/>
@@ -2220,7 +2127,7 @@
   </sheetPr>
   <dimension ref="B1:AF22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
@@ -2243,16 +2150,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -2261,134 +2168,134 @@
       <c r="G3" s="54"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="G5" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="78"/>
+      <c r="B5" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="G5" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="95"/>
     </row>
     <row r="6" spans="2:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="I6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="85"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="81"/>
       <c r="Q6" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="85"/>
+        <v>63</v>
+      </c>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="81"/>
       <c r="AF6" s="55"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>88</v>
+      <c r="C7" s="91" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="82"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="85"/>
-      <c r="P7" s="56" t="s">
-        <v>69</v>
-      </c>
       <c r="Q7" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="82"/>
+        <v>26</v>
+      </c>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="90"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="85"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="81"/>
       <c r="AE7" s="56"/>
       <c r="AF7" s="55"/>
     </row>
@@ -2396,19 +2303,19 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="4"/>
       <c r="E8" s="50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G8" s="13">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J8" s="2">
         <v>10</v>
@@ -2422,17 +2329,17 @@
       <c r="M8" s="2">
         <v>50</v>
       </c>
-      <c r="N8" s="68">
+      <c r="N8" s="72">
         <v>123</v>
       </c>
-      <c r="O8" s="69" t="s">
-        <v>32</v>
+      <c r="O8" s="73" t="s">
+        <v>27</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
@@ -2443,8 +2350,8 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="69"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="73"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="54"/>
     </row>
@@ -2452,21 +2359,21 @@
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="87" t="s">
-        <v>91</v>
+      <c r="C9" s="85" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="13">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J9" s="2">
         <v>10</v>
@@ -2480,17 +2387,17 @@
       <c r="M9" s="2">
         <v>50</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="72">
         <v>123</v>
       </c>
-      <c r="O9" s="69" t="s">
-        <v>34</v>
+      <c r="O9" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
@@ -2501,8 +2408,8 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="69"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="54"/>
     </row>
@@ -2510,19 +2417,19 @@
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="4"/>
       <c r="E10" s="49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G10" s="22">
         <v>3</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J10" s="10">
         <v>10</v>
@@ -2536,15 +2443,15 @@
       <c r="M10" s="10">
         <v>50</v>
       </c>
-      <c r="N10" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="O10" s="75"/>
+      <c r="N10" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="79"/>
       <c r="P10" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -2555,8 +2462,8 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="75"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="79"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="60"/>
     </row>
@@ -2564,17 +2471,17 @@
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="63"/>
       <c r="G11" s="22">
         <v>4</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J11" s="10">
         <v>-10</v>
@@ -2588,15 +2495,15 @@
       <c r="M11" s="10">
         <v>50</v>
       </c>
-      <c r="N11" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="75"/>
+      <c r="N11" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="79"/>
       <c r="P11" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -2607,8 +2514,8 @@
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="75"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="79"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="57"/>
     </row>
@@ -2628,8 +2535,8 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="58"/>
       <c r="T12" s="9"/>
@@ -2641,8 +2548,8 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="71"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="77"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="58"/>
     </row>
@@ -2650,7 +2557,7 @@
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="9">
@@ -2662,8 +2569,8 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="77"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="58"/>
       <c r="T13" s="9"/>
@@ -2675,8 +2582,8 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="71"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="77"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="58"/>
     </row>
@@ -2684,7 +2591,7 @@
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="88"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="12">
@@ -2696,8 +2603,8 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="59"/>
       <c r="T14" s="12"/>
@@ -2709,8 +2616,8 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="73"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="75"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="59"/>
     </row>
@@ -2718,7 +2625,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="86"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="12">
@@ -2730,8 +2637,8 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="69"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="59"/>
       <c r="T15" s="12"/>
@@ -2743,8 +2650,8 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="69"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="73"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="59"/>
     </row>
@@ -2752,7 +2659,7 @@
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="12"/>
@@ -2762,8 +2669,8 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="69"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="59"/>
       <c r="T16" s="12"/>
@@ -2775,8 +2682,8 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="69"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="73"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="59"/>
     </row>
@@ -2784,7 +2691,7 @@
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="86"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="12"/>
@@ -2794,8 +2701,8 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="69"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="59"/>
       <c r="T17" s="12"/>
@@ -2807,8 +2714,8 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="69"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="73"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="59"/>
     </row>
@@ -2816,7 +2723,7 @@
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="12"/>
@@ -2826,8 +2733,8 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="69"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="73"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="59"/>
       <c r="T18" s="12"/>
@@ -2839,8 +2746,8 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="69"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="73"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="59"/>
     </row>
@@ -2848,7 +2755,7 @@
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="86"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="13"/>
@@ -2858,8 +2765,8 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="69"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="59"/>
       <c r="T19" s="13"/>
@@ -2871,8 +2778,8 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="69"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="73"/>
       <c r="AE19" s="11"/>
       <c r="AF19" s="59"/>
     </row>
@@ -2880,25 +2787,51 @@
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+        <v>30</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:AE6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N10:O10"/>
@@ -2906,38 +2839,12 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="T5:AF5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:AE6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2951,7 +2858,7 @@
   </sheetPr>
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="D2" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2976,16 +2883,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="62" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -2994,53 +2901,53 @@
       <c r="G3" s="54"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
+      <c r="B5" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="78"/>
+      <c r="F5" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="46" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
@@ -3050,54 +2957,54 @@
       <c r="P6" s="45"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="55" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="87">
+      <c r="B7" s="85">
         <v>1</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="131" t="s">
-        <v>75</v>
+      <c r="C7" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>70</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
       <c r="I7" s="44"/>
       <c r="J7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="42" t="s">
         <v>62</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>67</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="56" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="91"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="130" t="s">
-        <v>76</v>
+      <c r="B8" s="86"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="64" t="s">
+        <v>71</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -3106,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K8" s="2">
         <v>10</v>
@@ -3131,17 +3038,17 @@
       </c>
       <c r="P8" s="41"/>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R8" s="54" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="91"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="130" t="s">
-        <v>79</v>
+      <c r="B9" s="86"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="13">
         <v>2</v>
@@ -3150,13 +3057,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
@@ -3174,20 +3081,20 @@
         <v>123</v>
       </c>
       <c r="P9" s="41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R9" s="54" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="91"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="130" t="s">
-        <v>78</v>
+      <c r="B10" s="86"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="F10" s="22">
         <v>3</v>
@@ -3196,13 +3103,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K10" s="10">
         <v>10</v>
@@ -3217,21 +3124,21 @@
         <v>400</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P10" s="37"/>
       <c r="Q10" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R10" s="60" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="91"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="130" t="s">
-        <v>77</v>
+      <c r="B11" s="86"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="F11" s="22">
         <v>4</v>
@@ -3240,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K11" s="10">
         <v>10</v>
@@ -3261,21 +3168,21 @@
         <v>333</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P11" s="37"/>
       <c r="Q11" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R11" s="57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="88"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="131" t="s">
-        <v>80</v>
+      <c r="B12" s="87"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="65" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="9">
         <v>5</v>
@@ -3294,10 +3201,10 @@
       <c r="R12" s="58"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="87">
+      <c r="B13" s="85">
         <v>2</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="2"/>
       <c r="F13" s="9">
         <v>6</v>
@@ -3316,8 +3223,8 @@
       <c r="R13" s="58"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="2"/>
       <c r="F14" s="12">
         <v>7</v>
@@ -3330,14 +3237,14 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="73"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="75"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="59"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="2"/>
       <c r="F15" s="12">
         <v>8</v>
@@ -3350,14 +3257,14 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="69"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="73"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="59"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3368,14 +3275,14 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="69"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="73"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="59"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3386,14 +3293,14 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="69"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="73"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="59"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -3404,16 +3311,16 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="69"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="73"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="59"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="87">
+      <c r="B19" s="85">
         <v>3</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="2"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -3424,72 +3331,79 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="69"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="59"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="91"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="91"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="91"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="91"/>
-      <c r="C23" s="94"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="88"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="87">
+      <c r="B25" s="85">
         <v>4</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="91"/>
-      <c r="C26" s="94"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="91"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="91"/>
-      <c r="C29" s="94"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="88"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C25:C30"/>
@@ -3500,13 +3414,6 @@
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3522,7 +3429,7 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3539,106 +3446,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
+      <c r="B3" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="85"/>
+      <c r="B4" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="81"/>
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="109"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="101"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="L5" s="81"/>
+      <c r="M5" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="56" t="s">
-        <v>69</v>
-      </c>
       <c r="N5" s="55" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>49</v>
+      <c r="C6" s="108" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="14">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
@@ -3652,20 +3559,20 @@
       <c r="J6" s="2">
         <v>50</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="72">
         <v>123</v>
       </c>
-      <c r="L6" s="69" t="s">
-        <v>32</v>
+      <c r="L6" s="73" t="s">
+        <v>27</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -3673,13 +3580,13 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="106"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="19"/>
       <c r="E7" s="8">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
@@ -3693,20 +3600,20 @@
       <c r="J7" s="2">
         <v>150</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="72">
         <v>123</v>
       </c>
-      <c r="L7" s="69" t="s">
-        <v>34</v>
+      <c r="L7" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
@@ -3714,13 +3621,13 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="106"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="19"/>
       <c r="E8" s="8">
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G8" s="10">
         <v>10</v>
@@ -3734,18 +3641,18 @@
       <c r="J8" s="10">
         <v>400</v>
       </c>
-      <c r="K8" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="75"/>
+      <c r="K8" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="79"/>
       <c r="M8" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -3753,13 +3660,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="106"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="19"/>
       <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -3773,18 +3680,18 @@
       <c r="J9" s="10">
         <v>333</v>
       </c>
-      <c r="K9" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="75"/>
+      <c r="K9" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="79"/>
       <c r="M9" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N9" s="57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -3792,13 +3699,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
@@ -3812,20 +3719,20 @@
       <c r="J10" s="2">
         <v>50</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="72">
         <v>123</v>
       </c>
-      <c r="L10" s="69" t="s">
-        <v>32</v>
+      <c r="L10" s="73" t="s">
+        <v>27</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -3833,13 +3740,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="106"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="19">
         <v>2</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -3853,20 +3760,20 @@
       <c r="J11" s="2">
         <v>50</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="72">
         <v>123</v>
       </c>
-      <c r="L11" s="69" t="s">
-        <v>34</v>
+      <c r="L11" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -3874,13 +3781,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="19">
         <v>3</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G12" s="10">
         <v>10</v>
@@ -3894,18 +3801,18 @@
       <c r="J12" s="10">
         <v>50</v>
       </c>
-      <c r="K12" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="75"/>
+      <c r="K12" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="79"/>
       <c r="M12" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N12" s="60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3913,13 +3820,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="20">
         <v>4</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G13" s="10">
         <v>-10</v>
@@ -3933,18 +3840,18 @@
       <c r="J13" s="10">
         <v>50</v>
       </c>
-      <c r="K13" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="75"/>
+      <c r="K13" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="79"/>
       <c r="M13" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N13" s="57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3964,7 +3871,7 @@
     </row>
     <row r="15" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
@@ -3974,102 +3881,102 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="103"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="103"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="105"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="25" t="s">
+      <c r="E18" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="118" t="s">
+      <c r="F18" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="118" t="s">
+      <c r="G18" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="121"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="120"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="115" t="s">
+      <c r="H18" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="123"/>
-      <c r="J18" s="116" t="s">
+      <c r="I18" s="119"/>
+      <c r="J18" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="127" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="117" t="s">
-        <v>57</v>
+      <c r="N18" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="101" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="117"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C20" s="24">
         <v>8</v>
@@ -4086,10 +3993,10 @@
       <c r="G20" s="30">
         <v>0</v>
       </c>
-      <c r="H20" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="113"/>
+      <c r="H20" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="115"/>
       <c r="J20" s="2">
         <v>0</v>
       </c>
@@ -4100,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N20" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O20" s="26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P20" s="27">
         <v>0</v>
@@ -4121,8 +4028,8 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="69"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="73"/>
       <c r="N33" s="11"/>
       <c r="O33" s="59"/>
     </row>
@@ -4132,8 +4039,8 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="69"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
       <c r="N34" s="11"/>
       <c r="O34" s="59"/>
     </row>
@@ -4143,8 +4050,8 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="69"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
       <c r="N35" s="11"/>
       <c r="O35" s="59"/>
     </row>
@@ -4154,38 +4061,13 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="69"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="73"/>
       <c r="N36" s="11"/>
       <c r="O36" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -4202,6 +4084,31 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4210,6 +4117,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4353,35 +4275,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4403,9 +4300,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>